--- a/grabDoll/config/pve.xlsx
+++ b/grabDoll/config/pve.xlsx
@@ -79,10 +79,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{"20010":1,"20011":3,"20012":5,"20013":1}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>atk</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -119,6 +115,10 @@
   </si>
   <si>
     <t>自寻死路,我们的事业是正义的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"20010":1,"20011":3,"20012":5}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -488,7 +488,7 @@
   <dimension ref="A1:H53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -517,7 +517,7 @@
         <v>7</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>0</v>
@@ -526,7 +526,7 @@
         <v>0</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
@@ -546,13 +546,13 @@
         <v>4</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
@@ -560,25 +560,25 @@
         <v>80001</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C3" s="1">
         <v>1</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F3" s="3">
         <v>1000</v>
       </c>
       <c r="G3" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
@@ -586,25 +586,25 @@
         <v>80002</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C4" s="1">
         <v>2</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F4" s="3">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="G4" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">

--- a/grabDoll/config/pve.xlsx
+++ b/grabDoll/config/pve.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="45" windowWidth="15960" windowHeight="16440"/>
@@ -358,8 +358,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -385,7 +385,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -396,6 +396,12 @@
       <patternFill patternType="solid">
         <fgColor indexed="9"/>
         <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -426,7 +432,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -448,6 +454,21 @@
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1634,14 +1655,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:IU32"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="14.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="19.25" style="1" customWidth="1"/>
@@ -1653,7 +1674,7 @@
     <col min="8" max="255" width="8.75" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:255" ht="18.95" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1676,7 +1697,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:255" ht="15.95" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -1699,7 +1720,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:255" ht="15.95" customHeight="1">
       <c r="A3" s="5">
         <v>80001</v>
       </c>
@@ -1716,13 +1737,13 @@
         <v>15</v>
       </c>
       <c r="F3" s="6">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:255" ht="15.95" customHeight="1">
       <c r="A4" s="5">
         <v>80002</v>
       </c>
@@ -1739,13 +1760,13 @@
         <v>18</v>
       </c>
       <c r="F4" s="6">
-        <v>1500</v>
+        <v>5000</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:255" ht="15.95" customHeight="1">
       <c r="A5" s="5">
         <v>80003</v>
       </c>
@@ -1762,13 +1783,13 @@
         <v>20</v>
       </c>
       <c r="F5" s="6">
-        <v>3000</v>
+        <v>10000</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:255" ht="15.95" customHeight="1">
       <c r="A6" s="5">
         <v>80004</v>
       </c>
@@ -1785,13 +1806,13 @@
         <v>22</v>
       </c>
       <c r="F6" s="6">
-        <v>3000</v>
+        <v>800000</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:255" ht="15.95" customHeight="1">
       <c r="A7" s="5">
         <v>80005</v>
       </c>
@@ -1808,36 +1829,284 @@
         <v>24</v>
       </c>
       <c r="F7" s="6">
-        <v>3000</v>
+        <v>1500000</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="5">
+    <row r="8" spans="1:255" s="17" customFormat="1" ht="15.95" customHeight="1">
+      <c r="A8" s="11">
         <v>80006</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="11">
         <v>6</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="F8" s="6">
-        <v>3000</v>
-      </c>
-      <c r="G8" s="4" t="s">
+      <c r="F8" s="14">
+        <v>4000000</v>
+      </c>
+      <c r="G8" s="15" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="16"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="16"/>
+      <c r="N8" s="16"/>
+      <c r="O8" s="16"/>
+      <c r="P8" s="16"/>
+      <c r="Q8" s="16"/>
+      <c r="R8" s="16"/>
+      <c r="S8" s="16"/>
+      <c r="T8" s="16"/>
+      <c r="U8" s="16"/>
+      <c r="V8" s="16"/>
+      <c r="W8" s="16"/>
+      <c r="X8" s="16"/>
+      <c r="Y8" s="16"/>
+      <c r="Z8" s="16"/>
+      <c r="AA8" s="16"/>
+      <c r="AB8" s="16"/>
+      <c r="AC8" s="16"/>
+      <c r="AD8" s="16"/>
+      <c r="AE8" s="16"/>
+      <c r="AF8" s="16"/>
+      <c r="AG8" s="16"/>
+      <c r="AH8" s="16"/>
+      <c r="AI8" s="16"/>
+      <c r="AJ8" s="16"/>
+      <c r="AK8" s="16"/>
+      <c r="AL8" s="16"/>
+      <c r="AM8" s="16"/>
+      <c r="AN8" s="16"/>
+      <c r="AO8" s="16"/>
+      <c r="AP8" s="16"/>
+      <c r="AQ8" s="16"/>
+      <c r="AR8" s="16"/>
+      <c r="AS8" s="16"/>
+      <c r="AT8" s="16"/>
+      <c r="AU8" s="16"/>
+      <c r="AV8" s="16"/>
+      <c r="AW8" s="16"/>
+      <c r="AX8" s="16"/>
+      <c r="AY8" s="16"/>
+      <c r="AZ8" s="16"/>
+      <c r="BA8" s="16"/>
+      <c r="BB8" s="16"/>
+      <c r="BC8" s="16"/>
+      <c r="BD8" s="16"/>
+      <c r="BE8" s="16"/>
+      <c r="BF8" s="16"/>
+      <c r="BG8" s="16"/>
+      <c r="BH8" s="16"/>
+      <c r="BI8" s="16"/>
+      <c r="BJ8" s="16"/>
+      <c r="BK8" s="16"/>
+      <c r="BL8" s="16"/>
+      <c r="BM8" s="16"/>
+      <c r="BN8" s="16"/>
+      <c r="BO8" s="16"/>
+      <c r="BP8" s="16"/>
+      <c r="BQ8" s="16"/>
+      <c r="BR8" s="16"/>
+      <c r="BS8" s="16"/>
+      <c r="BT8" s="16"/>
+      <c r="BU8" s="16"/>
+      <c r="BV8" s="16"/>
+      <c r="BW8" s="16"/>
+      <c r="BX8" s="16"/>
+      <c r="BY8" s="16"/>
+      <c r="BZ8" s="16"/>
+      <c r="CA8" s="16"/>
+      <c r="CB8" s="16"/>
+      <c r="CC8" s="16"/>
+      <c r="CD8" s="16"/>
+      <c r="CE8" s="16"/>
+      <c r="CF8" s="16"/>
+      <c r="CG8" s="16"/>
+      <c r="CH8" s="16"/>
+      <c r="CI8" s="16"/>
+      <c r="CJ8" s="16"/>
+      <c r="CK8" s="16"/>
+      <c r="CL8" s="16"/>
+      <c r="CM8" s="16"/>
+      <c r="CN8" s="16"/>
+      <c r="CO8" s="16"/>
+      <c r="CP8" s="16"/>
+      <c r="CQ8" s="16"/>
+      <c r="CR8" s="16"/>
+      <c r="CS8" s="16"/>
+      <c r="CT8" s="16"/>
+      <c r="CU8" s="16"/>
+      <c r="CV8" s="16"/>
+      <c r="CW8" s="16"/>
+      <c r="CX8" s="16"/>
+      <c r="CY8" s="16"/>
+      <c r="CZ8" s="16"/>
+      <c r="DA8" s="16"/>
+      <c r="DB8" s="16"/>
+      <c r="DC8" s="16"/>
+      <c r="DD8" s="16"/>
+      <c r="DE8" s="16"/>
+      <c r="DF8" s="16"/>
+      <c r="DG8" s="16"/>
+      <c r="DH8" s="16"/>
+      <c r="DI8" s="16"/>
+      <c r="DJ8" s="16"/>
+      <c r="DK8" s="16"/>
+      <c r="DL8" s="16"/>
+      <c r="DM8" s="16"/>
+      <c r="DN8" s="16"/>
+      <c r="DO8" s="16"/>
+      <c r="DP8" s="16"/>
+      <c r="DQ8" s="16"/>
+      <c r="DR8" s="16"/>
+      <c r="DS8" s="16"/>
+      <c r="DT8" s="16"/>
+      <c r="DU8" s="16"/>
+      <c r="DV8" s="16"/>
+      <c r="DW8" s="16"/>
+      <c r="DX8" s="16"/>
+      <c r="DY8" s="16"/>
+      <c r="DZ8" s="16"/>
+      <c r="EA8" s="16"/>
+      <c r="EB8" s="16"/>
+      <c r="EC8" s="16"/>
+      <c r="ED8" s="16"/>
+      <c r="EE8" s="16"/>
+      <c r="EF8" s="16"/>
+      <c r="EG8" s="16"/>
+      <c r="EH8" s="16"/>
+      <c r="EI8" s="16"/>
+      <c r="EJ8" s="16"/>
+      <c r="EK8" s="16"/>
+      <c r="EL8" s="16"/>
+      <c r="EM8" s="16"/>
+      <c r="EN8" s="16"/>
+      <c r="EO8" s="16"/>
+      <c r="EP8" s="16"/>
+      <c r="EQ8" s="16"/>
+      <c r="ER8" s="16"/>
+      <c r="ES8" s="16"/>
+      <c r="ET8" s="16"/>
+      <c r="EU8" s="16"/>
+      <c r="EV8" s="16"/>
+      <c r="EW8" s="16"/>
+      <c r="EX8" s="16"/>
+      <c r="EY8" s="16"/>
+      <c r="EZ8" s="16"/>
+      <c r="FA8" s="16"/>
+      <c r="FB8" s="16"/>
+      <c r="FC8" s="16"/>
+      <c r="FD8" s="16"/>
+      <c r="FE8" s="16"/>
+      <c r="FF8" s="16"/>
+      <c r="FG8" s="16"/>
+      <c r="FH8" s="16"/>
+      <c r="FI8" s="16"/>
+      <c r="FJ8" s="16"/>
+      <c r="FK8" s="16"/>
+      <c r="FL8" s="16"/>
+      <c r="FM8" s="16"/>
+      <c r="FN8" s="16"/>
+      <c r="FO8" s="16"/>
+      <c r="FP8" s="16"/>
+      <c r="FQ8" s="16"/>
+      <c r="FR8" s="16"/>
+      <c r="FS8" s="16"/>
+      <c r="FT8" s="16"/>
+      <c r="FU8" s="16"/>
+      <c r="FV8" s="16"/>
+      <c r="FW8" s="16"/>
+      <c r="FX8" s="16"/>
+      <c r="FY8" s="16"/>
+      <c r="FZ8" s="16"/>
+      <c r="GA8" s="16"/>
+      <c r="GB8" s="16"/>
+      <c r="GC8" s="16"/>
+      <c r="GD8" s="16"/>
+      <c r="GE8" s="16"/>
+      <c r="GF8" s="16"/>
+      <c r="GG8" s="16"/>
+      <c r="GH8" s="16"/>
+      <c r="GI8" s="16"/>
+      <c r="GJ8" s="16"/>
+      <c r="GK8" s="16"/>
+      <c r="GL8" s="16"/>
+      <c r="GM8" s="16"/>
+      <c r="GN8" s="16"/>
+      <c r="GO8" s="16"/>
+      <c r="GP8" s="16"/>
+      <c r="GQ8" s="16"/>
+      <c r="GR8" s="16"/>
+      <c r="GS8" s="16"/>
+      <c r="GT8" s="16"/>
+      <c r="GU8" s="16"/>
+      <c r="GV8" s="16"/>
+      <c r="GW8" s="16"/>
+      <c r="GX8" s="16"/>
+      <c r="GY8" s="16"/>
+      <c r="GZ8" s="16"/>
+      <c r="HA8" s="16"/>
+      <c r="HB8" s="16"/>
+      <c r="HC8" s="16"/>
+      <c r="HD8" s="16"/>
+      <c r="HE8" s="16"/>
+      <c r="HF8" s="16"/>
+      <c r="HG8" s="16"/>
+      <c r="HH8" s="16"/>
+      <c r="HI8" s="16"/>
+      <c r="HJ8" s="16"/>
+      <c r="HK8" s="16"/>
+      <c r="HL8" s="16"/>
+      <c r="HM8" s="16"/>
+      <c r="HN8" s="16"/>
+      <c r="HO8" s="16"/>
+      <c r="HP8" s="16"/>
+      <c r="HQ8" s="16"/>
+      <c r="HR8" s="16"/>
+      <c r="HS8" s="16"/>
+      <c r="HT8" s="16"/>
+      <c r="HU8" s="16"/>
+      <c r="HV8" s="16"/>
+      <c r="HW8" s="16"/>
+      <c r="HX8" s="16"/>
+      <c r="HY8" s="16"/>
+      <c r="HZ8" s="16"/>
+      <c r="IA8" s="16"/>
+      <c r="IB8" s="16"/>
+      <c r="IC8" s="16"/>
+      <c r="ID8" s="16"/>
+      <c r="IE8" s="16"/>
+      <c r="IF8" s="16"/>
+      <c r="IG8" s="16"/>
+      <c r="IH8" s="16"/>
+      <c r="II8" s="16"/>
+      <c r="IJ8" s="16"/>
+      <c r="IK8" s="16"/>
+      <c r="IL8" s="16"/>
+      <c r="IM8" s="16"/>
+      <c r="IN8" s="16"/>
+      <c r="IO8" s="16"/>
+      <c r="IP8" s="16"/>
+      <c r="IQ8" s="16"/>
+      <c r="IR8" s="16"/>
+      <c r="IS8" s="16"/>
+      <c r="IT8" s="16"/>
+      <c r="IU8" s="16"/>
+    </row>
+    <row r="9" spans="1:255" ht="15.95" customHeight="1">
       <c r="A9" s="5">
         <v>80007</v>
       </c>
@@ -1854,13 +2123,13 @@
         <v>28</v>
       </c>
       <c r="F9" s="6">
-        <v>3000</v>
+        <v>5000000</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:255" ht="15.95" customHeight="1">
       <c r="A10" s="5">
         <v>80008</v>
       </c>
@@ -1877,13 +2146,13 @@
         <v>30</v>
       </c>
       <c r="F10" s="6">
-        <v>3000</v>
+        <v>6000000</v>
       </c>
       <c r="G10" s="4" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:255" ht="15.95" customHeight="1">
       <c r="A11" s="5">
         <v>80009</v>
       </c>
@@ -1900,13 +2169,13 @@
         <v>32</v>
       </c>
       <c r="F11" s="6">
-        <v>3000</v>
+        <v>9000000</v>
       </c>
       <c r="G11" s="4" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:255" ht="15.95" customHeight="1">
       <c r="A12" s="5">
         <v>80010</v>
       </c>
@@ -1923,13 +2192,13 @@
         <v>34</v>
       </c>
       <c r="F12" s="6">
-        <v>3000</v>
+        <v>15000000</v>
       </c>
       <c r="G12" s="4" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:255" ht="15.95" customHeight="1">
       <c r="A13" s="5">
         <v>80011</v>
       </c>
@@ -1946,36 +2215,284 @@
         <v>36</v>
       </c>
       <c r="F13" s="6">
-        <v>3000</v>
+        <v>22000000</v>
       </c>
       <c r="G13" s="4" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="5">
+    <row r="14" spans="1:255" s="17" customFormat="1" ht="15.95" customHeight="1">
+      <c r="A14" s="11">
         <v>80012</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C14" s="11">
         <v>12</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E14" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="F14" s="6">
-        <v>3000</v>
-      </c>
-      <c r="G14" s="4" t="s">
+      <c r="F14" s="14">
+        <v>33000000</v>
+      </c>
+      <c r="G14" s="15" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H14" s="16"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="16"/>
+      <c r="K14" s="16"/>
+      <c r="L14" s="16"/>
+      <c r="M14" s="16"/>
+      <c r="N14" s="16"/>
+      <c r="O14" s="16"/>
+      <c r="P14" s="16"/>
+      <c r="Q14" s="16"/>
+      <c r="R14" s="16"/>
+      <c r="S14" s="16"/>
+      <c r="T14" s="16"/>
+      <c r="U14" s="16"/>
+      <c r="V14" s="16"/>
+      <c r="W14" s="16"/>
+      <c r="X14" s="16"/>
+      <c r="Y14" s="16"/>
+      <c r="Z14" s="16"/>
+      <c r="AA14" s="16"/>
+      <c r="AB14" s="16"/>
+      <c r="AC14" s="16"/>
+      <c r="AD14" s="16"/>
+      <c r="AE14" s="16"/>
+      <c r="AF14" s="16"/>
+      <c r="AG14" s="16"/>
+      <c r="AH14" s="16"/>
+      <c r="AI14" s="16"/>
+      <c r="AJ14" s="16"/>
+      <c r="AK14" s="16"/>
+      <c r="AL14" s="16"/>
+      <c r="AM14" s="16"/>
+      <c r="AN14" s="16"/>
+      <c r="AO14" s="16"/>
+      <c r="AP14" s="16"/>
+      <c r="AQ14" s="16"/>
+      <c r="AR14" s="16"/>
+      <c r="AS14" s="16"/>
+      <c r="AT14" s="16"/>
+      <c r="AU14" s="16"/>
+      <c r="AV14" s="16"/>
+      <c r="AW14" s="16"/>
+      <c r="AX14" s="16"/>
+      <c r="AY14" s="16"/>
+      <c r="AZ14" s="16"/>
+      <c r="BA14" s="16"/>
+      <c r="BB14" s="16"/>
+      <c r="BC14" s="16"/>
+      <c r="BD14" s="16"/>
+      <c r="BE14" s="16"/>
+      <c r="BF14" s="16"/>
+      <c r="BG14" s="16"/>
+      <c r="BH14" s="16"/>
+      <c r="BI14" s="16"/>
+      <c r="BJ14" s="16"/>
+      <c r="BK14" s="16"/>
+      <c r="BL14" s="16"/>
+      <c r="BM14" s="16"/>
+      <c r="BN14" s="16"/>
+      <c r="BO14" s="16"/>
+      <c r="BP14" s="16"/>
+      <c r="BQ14" s="16"/>
+      <c r="BR14" s="16"/>
+      <c r="BS14" s="16"/>
+      <c r="BT14" s="16"/>
+      <c r="BU14" s="16"/>
+      <c r="BV14" s="16"/>
+      <c r="BW14" s="16"/>
+      <c r="BX14" s="16"/>
+      <c r="BY14" s="16"/>
+      <c r="BZ14" s="16"/>
+      <c r="CA14" s="16"/>
+      <c r="CB14" s="16"/>
+      <c r="CC14" s="16"/>
+      <c r="CD14" s="16"/>
+      <c r="CE14" s="16"/>
+      <c r="CF14" s="16"/>
+      <c r="CG14" s="16"/>
+      <c r="CH14" s="16"/>
+      <c r="CI14" s="16"/>
+      <c r="CJ14" s="16"/>
+      <c r="CK14" s="16"/>
+      <c r="CL14" s="16"/>
+      <c r="CM14" s="16"/>
+      <c r="CN14" s="16"/>
+      <c r="CO14" s="16"/>
+      <c r="CP14" s="16"/>
+      <c r="CQ14" s="16"/>
+      <c r="CR14" s="16"/>
+      <c r="CS14" s="16"/>
+      <c r="CT14" s="16"/>
+      <c r="CU14" s="16"/>
+      <c r="CV14" s="16"/>
+      <c r="CW14" s="16"/>
+      <c r="CX14" s="16"/>
+      <c r="CY14" s="16"/>
+      <c r="CZ14" s="16"/>
+      <c r="DA14" s="16"/>
+      <c r="DB14" s="16"/>
+      <c r="DC14" s="16"/>
+      <c r="DD14" s="16"/>
+      <c r="DE14" s="16"/>
+      <c r="DF14" s="16"/>
+      <c r="DG14" s="16"/>
+      <c r="DH14" s="16"/>
+      <c r="DI14" s="16"/>
+      <c r="DJ14" s="16"/>
+      <c r="DK14" s="16"/>
+      <c r="DL14" s="16"/>
+      <c r="DM14" s="16"/>
+      <c r="DN14" s="16"/>
+      <c r="DO14" s="16"/>
+      <c r="DP14" s="16"/>
+      <c r="DQ14" s="16"/>
+      <c r="DR14" s="16"/>
+      <c r="DS14" s="16"/>
+      <c r="DT14" s="16"/>
+      <c r="DU14" s="16"/>
+      <c r="DV14" s="16"/>
+      <c r="DW14" s="16"/>
+      <c r="DX14" s="16"/>
+      <c r="DY14" s="16"/>
+      <c r="DZ14" s="16"/>
+      <c r="EA14" s="16"/>
+      <c r="EB14" s="16"/>
+      <c r="EC14" s="16"/>
+      <c r="ED14" s="16"/>
+      <c r="EE14" s="16"/>
+      <c r="EF14" s="16"/>
+      <c r="EG14" s="16"/>
+      <c r="EH14" s="16"/>
+      <c r="EI14" s="16"/>
+      <c r="EJ14" s="16"/>
+      <c r="EK14" s="16"/>
+      <c r="EL14" s="16"/>
+      <c r="EM14" s="16"/>
+      <c r="EN14" s="16"/>
+      <c r="EO14" s="16"/>
+      <c r="EP14" s="16"/>
+      <c r="EQ14" s="16"/>
+      <c r="ER14" s="16"/>
+      <c r="ES14" s="16"/>
+      <c r="ET14" s="16"/>
+      <c r="EU14" s="16"/>
+      <c r="EV14" s="16"/>
+      <c r="EW14" s="16"/>
+      <c r="EX14" s="16"/>
+      <c r="EY14" s="16"/>
+      <c r="EZ14" s="16"/>
+      <c r="FA14" s="16"/>
+      <c r="FB14" s="16"/>
+      <c r="FC14" s="16"/>
+      <c r="FD14" s="16"/>
+      <c r="FE14" s="16"/>
+      <c r="FF14" s="16"/>
+      <c r="FG14" s="16"/>
+      <c r="FH14" s="16"/>
+      <c r="FI14" s="16"/>
+      <c r="FJ14" s="16"/>
+      <c r="FK14" s="16"/>
+      <c r="FL14" s="16"/>
+      <c r="FM14" s="16"/>
+      <c r="FN14" s="16"/>
+      <c r="FO14" s="16"/>
+      <c r="FP14" s="16"/>
+      <c r="FQ14" s="16"/>
+      <c r="FR14" s="16"/>
+      <c r="FS14" s="16"/>
+      <c r="FT14" s="16"/>
+      <c r="FU14" s="16"/>
+      <c r="FV14" s="16"/>
+      <c r="FW14" s="16"/>
+      <c r="FX14" s="16"/>
+      <c r="FY14" s="16"/>
+      <c r="FZ14" s="16"/>
+      <c r="GA14" s="16"/>
+      <c r="GB14" s="16"/>
+      <c r="GC14" s="16"/>
+      <c r="GD14" s="16"/>
+      <c r="GE14" s="16"/>
+      <c r="GF14" s="16"/>
+      <c r="GG14" s="16"/>
+      <c r="GH14" s="16"/>
+      <c r="GI14" s="16"/>
+      <c r="GJ14" s="16"/>
+      <c r="GK14" s="16"/>
+      <c r="GL14" s="16"/>
+      <c r="GM14" s="16"/>
+      <c r="GN14" s="16"/>
+      <c r="GO14" s="16"/>
+      <c r="GP14" s="16"/>
+      <c r="GQ14" s="16"/>
+      <c r="GR14" s="16"/>
+      <c r="GS14" s="16"/>
+      <c r="GT14" s="16"/>
+      <c r="GU14" s="16"/>
+      <c r="GV14" s="16"/>
+      <c r="GW14" s="16"/>
+      <c r="GX14" s="16"/>
+      <c r="GY14" s="16"/>
+      <c r="GZ14" s="16"/>
+      <c r="HA14" s="16"/>
+      <c r="HB14" s="16"/>
+      <c r="HC14" s="16"/>
+      <c r="HD14" s="16"/>
+      <c r="HE14" s="16"/>
+      <c r="HF14" s="16"/>
+      <c r="HG14" s="16"/>
+      <c r="HH14" s="16"/>
+      <c r="HI14" s="16"/>
+      <c r="HJ14" s="16"/>
+      <c r="HK14" s="16"/>
+      <c r="HL14" s="16"/>
+      <c r="HM14" s="16"/>
+      <c r="HN14" s="16"/>
+      <c r="HO14" s="16"/>
+      <c r="HP14" s="16"/>
+      <c r="HQ14" s="16"/>
+      <c r="HR14" s="16"/>
+      <c r="HS14" s="16"/>
+      <c r="HT14" s="16"/>
+      <c r="HU14" s="16"/>
+      <c r="HV14" s="16"/>
+      <c r="HW14" s="16"/>
+      <c r="HX14" s="16"/>
+      <c r="HY14" s="16"/>
+      <c r="HZ14" s="16"/>
+      <c r="IA14" s="16"/>
+      <c r="IB14" s="16"/>
+      <c r="IC14" s="16"/>
+      <c r="ID14" s="16"/>
+      <c r="IE14" s="16"/>
+      <c r="IF14" s="16"/>
+      <c r="IG14" s="16"/>
+      <c r="IH14" s="16"/>
+      <c r="II14" s="16"/>
+      <c r="IJ14" s="16"/>
+      <c r="IK14" s="16"/>
+      <c r="IL14" s="16"/>
+      <c r="IM14" s="16"/>
+      <c r="IN14" s="16"/>
+      <c r="IO14" s="16"/>
+      <c r="IP14" s="16"/>
+      <c r="IQ14" s="16"/>
+      <c r="IR14" s="16"/>
+      <c r="IS14" s="16"/>
+      <c r="IT14" s="16"/>
+      <c r="IU14" s="16"/>
+    </row>
+    <row r="15" spans="1:255" ht="15.95" customHeight="1">
       <c r="A15" s="5">
         <v>80013</v>
       </c>
@@ -1992,13 +2509,14 @@
         <v>40</v>
       </c>
       <c r="F15" s="6">
-        <v>3000</v>
+        <f t="array" ref="F15">F20*0.22</f>
+        <v>35200000</v>
       </c>
       <c r="G15" s="4" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:255" ht="15.95" customHeight="1">
       <c r="A16" s="5">
         <v>80014</v>
       </c>
@@ -2015,13 +2533,14 @@
         <v>42</v>
       </c>
       <c r="F16" s="6">
-        <v>3000</v>
+        <f t="array" ref="F16">F20*0.25</f>
+        <v>40000000</v>
       </c>
       <c r="G16" s="4" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:255" ht="15.95" customHeight="1">
       <c r="A17" s="5">
         <v>80015</v>
       </c>
@@ -2038,13 +2557,14 @@
         <v>44</v>
       </c>
       <c r="F17" s="6">
-        <v>3000</v>
+        <f t="array" ref="F17">F20*0.3</f>
+        <v>48000000</v>
       </c>
       <c r="G17" s="4" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:255" ht="15.95" customHeight="1">
       <c r="A18" s="5">
         <v>80016</v>
       </c>
@@ -2061,13 +2581,14 @@
         <v>46</v>
       </c>
       <c r="F18" s="6">
-        <v>3000</v>
+        <f t="array" ref="F18">F20*0.5</f>
+        <v>80000000</v>
       </c>
       <c r="G18" s="4" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:255" ht="15.95" customHeight="1">
       <c r="A19" s="5">
         <v>80017</v>
       </c>
@@ -2084,36 +2605,285 @@
         <v>48</v>
       </c>
       <c r="F19" s="6">
-        <v>3000</v>
+        <f t="array" ref="F19">F20*0.7</f>
+        <v>112000000</v>
       </c>
       <c r="G19" s="4" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="5">
+    <row r="20" spans="1:255" s="17" customFormat="1" ht="15.95" customHeight="1">
+      <c r="A20" s="11">
         <v>80018</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="C20" s="5">
+      <c r="C20" s="11">
         <v>18</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D20" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="E20" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="F20" s="6">
-        <v>3000</v>
-      </c>
-      <c r="G20" s="4" t="s">
+      <c r="F20" s="14">
+        <v>160000000</v>
+      </c>
+      <c r="G20" s="15" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H20" s="16"/>
+      <c r="I20" s="16"/>
+      <c r="J20" s="16"/>
+      <c r="K20" s="16"/>
+      <c r="L20" s="16"/>
+      <c r="M20" s="16"/>
+      <c r="N20" s="16"/>
+      <c r="O20" s="16"/>
+      <c r="P20" s="16"/>
+      <c r="Q20" s="16"/>
+      <c r="R20" s="16"/>
+      <c r="S20" s="16"/>
+      <c r="T20" s="16"/>
+      <c r="U20" s="16"/>
+      <c r="V20" s="16"/>
+      <c r="W20" s="16"/>
+      <c r="X20" s="16"/>
+      <c r="Y20" s="16"/>
+      <c r="Z20" s="16"/>
+      <c r="AA20" s="16"/>
+      <c r="AB20" s="16"/>
+      <c r="AC20" s="16"/>
+      <c r="AD20" s="16"/>
+      <c r="AE20" s="16"/>
+      <c r="AF20" s="16"/>
+      <c r="AG20" s="16"/>
+      <c r="AH20" s="16"/>
+      <c r="AI20" s="16"/>
+      <c r="AJ20" s="16"/>
+      <c r="AK20" s="16"/>
+      <c r="AL20" s="16"/>
+      <c r="AM20" s="16"/>
+      <c r="AN20" s="16"/>
+      <c r="AO20" s="16"/>
+      <c r="AP20" s="16"/>
+      <c r="AQ20" s="16"/>
+      <c r="AR20" s="16"/>
+      <c r="AS20" s="16"/>
+      <c r="AT20" s="16"/>
+      <c r="AU20" s="16"/>
+      <c r="AV20" s="16"/>
+      <c r="AW20" s="16"/>
+      <c r="AX20" s="16"/>
+      <c r="AY20" s="16"/>
+      <c r="AZ20" s="16"/>
+      <c r="BA20" s="16"/>
+      <c r="BB20" s="16"/>
+      <c r="BC20" s="16"/>
+      <c r="BD20" s="16"/>
+      <c r="BE20" s="16"/>
+      <c r="BF20" s="16"/>
+      <c r="BG20" s="16"/>
+      <c r="BH20" s="16"/>
+      <c r="BI20" s="16"/>
+      <c r="BJ20" s="16"/>
+      <c r="BK20" s="16"/>
+      <c r="BL20" s="16"/>
+      <c r="BM20" s="16"/>
+      <c r="BN20" s="16"/>
+      <c r="BO20" s="16"/>
+      <c r="BP20" s="16"/>
+      <c r="BQ20" s="16"/>
+      <c r="BR20" s="16"/>
+      <c r="BS20" s="16"/>
+      <c r="BT20" s="16"/>
+      <c r="BU20" s="16"/>
+      <c r="BV20" s="16"/>
+      <c r="BW20" s="16"/>
+      <c r="BX20" s="16"/>
+      <c r="BY20" s="16"/>
+      <c r="BZ20" s="16"/>
+      <c r="CA20" s="16"/>
+      <c r="CB20" s="16"/>
+      <c r="CC20" s="16"/>
+      <c r="CD20" s="16"/>
+      <c r="CE20" s="16"/>
+      <c r="CF20" s="16"/>
+      <c r="CG20" s="16"/>
+      <c r="CH20" s="16"/>
+      <c r="CI20" s="16"/>
+      <c r="CJ20" s="16"/>
+      <c r="CK20" s="16"/>
+      <c r="CL20" s="16"/>
+      <c r="CM20" s="16"/>
+      <c r="CN20" s="16"/>
+      <c r="CO20" s="16"/>
+      <c r="CP20" s="16"/>
+      <c r="CQ20" s="16"/>
+      <c r="CR20" s="16"/>
+      <c r="CS20" s="16"/>
+      <c r="CT20" s="16"/>
+      <c r="CU20" s="16"/>
+      <c r="CV20" s="16"/>
+      <c r="CW20" s="16"/>
+      <c r="CX20" s="16"/>
+      <c r="CY20" s="16"/>
+      <c r="CZ20" s="16"/>
+      <c r="DA20" s="16"/>
+      <c r="DB20" s="16"/>
+      <c r="DC20" s="16"/>
+      <c r="DD20" s="16"/>
+      <c r="DE20" s="16"/>
+      <c r="DF20" s="16"/>
+      <c r="DG20" s="16"/>
+      <c r="DH20" s="16"/>
+      <c r="DI20" s="16"/>
+      <c r="DJ20" s="16"/>
+      <c r="DK20" s="16"/>
+      <c r="DL20" s="16"/>
+      <c r="DM20" s="16"/>
+      <c r="DN20" s="16"/>
+      <c r="DO20" s="16"/>
+      <c r="DP20" s="16"/>
+      <c r="DQ20" s="16"/>
+      <c r="DR20" s="16"/>
+      <c r="DS20" s="16"/>
+      <c r="DT20" s="16"/>
+      <c r="DU20" s="16"/>
+      <c r="DV20" s="16"/>
+      <c r="DW20" s="16"/>
+      <c r="DX20" s="16"/>
+      <c r="DY20" s="16"/>
+      <c r="DZ20" s="16"/>
+      <c r="EA20" s="16"/>
+      <c r="EB20" s="16"/>
+      <c r="EC20" s="16"/>
+      <c r="ED20" s="16"/>
+      <c r="EE20" s="16"/>
+      <c r="EF20" s="16"/>
+      <c r="EG20" s="16"/>
+      <c r="EH20" s="16"/>
+      <c r="EI20" s="16"/>
+      <c r="EJ20" s="16"/>
+      <c r="EK20" s="16"/>
+      <c r="EL20" s="16"/>
+      <c r="EM20" s="16"/>
+      <c r="EN20" s="16"/>
+      <c r="EO20" s="16"/>
+      <c r="EP20" s="16"/>
+      <c r="EQ20" s="16"/>
+      <c r="ER20" s="16"/>
+      <c r="ES20" s="16"/>
+      <c r="ET20" s="16"/>
+      <c r="EU20" s="16"/>
+      <c r="EV20" s="16"/>
+      <c r="EW20" s="16"/>
+      <c r="EX20" s="16"/>
+      <c r="EY20" s="16"/>
+      <c r="EZ20" s="16"/>
+      <c r="FA20" s="16"/>
+      <c r="FB20" s="16"/>
+      <c r="FC20" s="16"/>
+      <c r="FD20" s="16"/>
+      <c r="FE20" s="16"/>
+      <c r="FF20" s="16"/>
+      <c r="FG20" s="16"/>
+      <c r="FH20" s="16"/>
+      <c r="FI20" s="16"/>
+      <c r="FJ20" s="16"/>
+      <c r="FK20" s="16"/>
+      <c r="FL20" s="16"/>
+      <c r="FM20" s="16"/>
+      <c r="FN20" s="16"/>
+      <c r="FO20" s="16"/>
+      <c r="FP20" s="16"/>
+      <c r="FQ20" s="16"/>
+      <c r="FR20" s="16"/>
+      <c r="FS20" s="16"/>
+      <c r="FT20" s="16"/>
+      <c r="FU20" s="16"/>
+      <c r="FV20" s="16"/>
+      <c r="FW20" s="16"/>
+      <c r="FX20" s="16"/>
+      <c r="FY20" s="16"/>
+      <c r="FZ20" s="16"/>
+      <c r="GA20" s="16"/>
+      <c r="GB20" s="16"/>
+      <c r="GC20" s="16"/>
+      <c r="GD20" s="16"/>
+      <c r="GE20" s="16"/>
+      <c r="GF20" s="16"/>
+      <c r="GG20" s="16"/>
+      <c r="GH20" s="16"/>
+      <c r="GI20" s="16"/>
+      <c r="GJ20" s="16"/>
+      <c r="GK20" s="16"/>
+      <c r="GL20" s="16"/>
+      <c r="GM20" s="16"/>
+      <c r="GN20" s="16"/>
+      <c r="GO20" s="16"/>
+      <c r="GP20" s="16"/>
+      <c r="GQ20" s="16"/>
+      <c r="GR20" s="16"/>
+      <c r="GS20" s="16"/>
+      <c r="GT20" s="16"/>
+      <c r="GU20" s="16"/>
+      <c r="GV20" s="16"/>
+      <c r="GW20" s="16"/>
+      <c r="GX20" s="16"/>
+      <c r="GY20" s="16"/>
+      <c r="GZ20" s="16"/>
+      <c r="HA20" s="16"/>
+      <c r="HB20" s="16"/>
+      <c r="HC20" s="16"/>
+      <c r="HD20" s="16"/>
+      <c r="HE20" s="16"/>
+      <c r="HF20" s="16"/>
+      <c r="HG20" s="16"/>
+      <c r="HH20" s="16"/>
+      <c r="HI20" s="16"/>
+      <c r="HJ20" s="16"/>
+      <c r="HK20" s="16"/>
+      <c r="HL20" s="16"/>
+      <c r="HM20" s="16"/>
+      <c r="HN20" s="16"/>
+      <c r="HO20" s="16"/>
+      <c r="HP20" s="16"/>
+      <c r="HQ20" s="16"/>
+      <c r="HR20" s="16"/>
+      <c r="HS20" s="16"/>
+      <c r="HT20" s="16"/>
+      <c r="HU20" s="16"/>
+      <c r="HV20" s="16"/>
+      <c r="HW20" s="16"/>
+      <c r="HX20" s="16"/>
+      <c r="HY20" s="16"/>
+      <c r="HZ20" s="16"/>
+      <c r="IA20" s="16"/>
+      <c r="IB20" s="16"/>
+      <c r="IC20" s="16"/>
+      <c r="ID20" s="16"/>
+      <c r="IE20" s="16"/>
+      <c r="IF20" s="16"/>
+      <c r="IG20" s="16"/>
+      <c r="IH20" s="16"/>
+      <c r="II20" s="16"/>
+      <c r="IJ20" s="16"/>
+      <c r="IK20" s="16"/>
+      <c r="IL20" s="16"/>
+      <c r="IM20" s="16"/>
+      <c r="IN20" s="16"/>
+      <c r="IO20" s="16"/>
+      <c r="IP20" s="16"/>
+      <c r="IQ20" s="16"/>
+      <c r="IR20" s="16"/>
+      <c r="IS20" s="16"/>
+      <c r="IT20" s="16"/>
+      <c r="IU20" s="16"/>
+    </row>
+    <row r="21" spans="1:255" ht="15.95" customHeight="1">
       <c r="A21" s="5">
         <v>80019</v>
       </c>
@@ -2130,13 +2900,14 @@
         <v>52</v>
       </c>
       <c r="F21" s="6">
-        <v>3000</v>
+        <f t="array" ref="F21">F26*0.22</f>
+        <v>92400000</v>
       </c>
       <c r="G21" s="4" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:255" ht="15.95" customHeight="1">
       <c r="A22" s="5">
         <v>80020</v>
       </c>
@@ -2153,13 +2924,14 @@
         <v>54</v>
       </c>
       <c r="F22" s="6">
-        <v>3000</v>
+        <f t="array" ref="F22">F26*0.25</f>
+        <v>105000000</v>
       </c>
       <c r="G22" s="4" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:255" ht="15.95" customHeight="1">
       <c r="A23" s="5">
         <v>80021</v>
       </c>
@@ -2176,13 +2948,14 @@
         <v>56</v>
       </c>
       <c r="F23" s="6">
-        <v>3000</v>
+        <f t="array" ref="F23">F26*0.3</f>
+        <v>126000000</v>
       </c>
       <c r="G23" s="4" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:255" ht="15.95" customHeight="1">
       <c r="A24" s="5">
         <v>80022</v>
       </c>
@@ -2199,13 +2972,14 @@
         <v>58</v>
       </c>
       <c r="F24" s="6">
-        <v>3000</v>
+        <f t="array" ref="F24">F26*0.5</f>
+        <v>210000000</v>
       </c>
       <c r="G24" s="4" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:255" ht="15.95" customHeight="1">
       <c r="A25" s="5">
         <v>80023</v>
       </c>
@@ -2222,36 +2996,285 @@
         <v>60</v>
       </c>
       <c r="F25" s="6">
-        <v>3000</v>
+        <f t="array" ref="F25">F26*0.7</f>
+        <v>294000000</v>
       </c>
       <c r="G25" s="4" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="5">
+    <row r="26" spans="1:255" s="17" customFormat="1" ht="15.95" customHeight="1">
+      <c r="A26" s="11">
         <v>80024</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="C26" s="5">
+      <c r="C26" s="11">
         <v>24</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="D26" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="E26" s="3" t="s">
+      <c r="E26" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="F26" s="6">
-        <v>3000</v>
-      </c>
-      <c r="G26" s="4" t="s">
+      <c r="F26" s="14">
+        <v>420000000</v>
+      </c>
+      <c r="G26" s="15" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H26" s="16"/>
+      <c r="I26" s="16"/>
+      <c r="J26" s="16"/>
+      <c r="K26" s="16"/>
+      <c r="L26" s="16"/>
+      <c r="M26" s="16"/>
+      <c r="N26" s="16"/>
+      <c r="O26" s="16"/>
+      <c r="P26" s="16"/>
+      <c r="Q26" s="16"/>
+      <c r="R26" s="16"/>
+      <c r="S26" s="16"/>
+      <c r="T26" s="16"/>
+      <c r="U26" s="16"/>
+      <c r="V26" s="16"/>
+      <c r="W26" s="16"/>
+      <c r="X26" s="16"/>
+      <c r="Y26" s="16"/>
+      <c r="Z26" s="16"/>
+      <c r="AA26" s="16"/>
+      <c r="AB26" s="16"/>
+      <c r="AC26" s="16"/>
+      <c r="AD26" s="16"/>
+      <c r="AE26" s="16"/>
+      <c r="AF26" s="16"/>
+      <c r="AG26" s="16"/>
+      <c r="AH26" s="16"/>
+      <c r="AI26" s="16"/>
+      <c r="AJ26" s="16"/>
+      <c r="AK26" s="16"/>
+      <c r="AL26" s="16"/>
+      <c r="AM26" s="16"/>
+      <c r="AN26" s="16"/>
+      <c r="AO26" s="16"/>
+      <c r="AP26" s="16"/>
+      <c r="AQ26" s="16"/>
+      <c r="AR26" s="16"/>
+      <c r="AS26" s="16"/>
+      <c r="AT26" s="16"/>
+      <c r="AU26" s="16"/>
+      <c r="AV26" s="16"/>
+      <c r="AW26" s="16"/>
+      <c r="AX26" s="16"/>
+      <c r="AY26" s="16"/>
+      <c r="AZ26" s="16"/>
+      <c r="BA26" s="16"/>
+      <c r="BB26" s="16"/>
+      <c r="BC26" s="16"/>
+      <c r="BD26" s="16"/>
+      <c r="BE26" s="16"/>
+      <c r="BF26" s="16"/>
+      <c r="BG26" s="16"/>
+      <c r="BH26" s="16"/>
+      <c r="BI26" s="16"/>
+      <c r="BJ26" s="16"/>
+      <c r="BK26" s="16"/>
+      <c r="BL26" s="16"/>
+      <c r="BM26" s="16"/>
+      <c r="BN26" s="16"/>
+      <c r="BO26" s="16"/>
+      <c r="BP26" s="16"/>
+      <c r="BQ26" s="16"/>
+      <c r="BR26" s="16"/>
+      <c r="BS26" s="16"/>
+      <c r="BT26" s="16"/>
+      <c r="BU26" s="16"/>
+      <c r="BV26" s="16"/>
+      <c r="BW26" s="16"/>
+      <c r="BX26" s="16"/>
+      <c r="BY26" s="16"/>
+      <c r="BZ26" s="16"/>
+      <c r="CA26" s="16"/>
+      <c r="CB26" s="16"/>
+      <c r="CC26" s="16"/>
+      <c r="CD26" s="16"/>
+      <c r="CE26" s="16"/>
+      <c r="CF26" s="16"/>
+      <c r="CG26" s="16"/>
+      <c r="CH26" s="16"/>
+      <c r="CI26" s="16"/>
+      <c r="CJ26" s="16"/>
+      <c r="CK26" s="16"/>
+      <c r="CL26" s="16"/>
+      <c r="CM26" s="16"/>
+      <c r="CN26" s="16"/>
+      <c r="CO26" s="16"/>
+      <c r="CP26" s="16"/>
+      <c r="CQ26" s="16"/>
+      <c r="CR26" s="16"/>
+      <c r="CS26" s="16"/>
+      <c r="CT26" s="16"/>
+      <c r="CU26" s="16"/>
+      <c r="CV26" s="16"/>
+      <c r="CW26" s="16"/>
+      <c r="CX26" s="16"/>
+      <c r="CY26" s="16"/>
+      <c r="CZ26" s="16"/>
+      <c r="DA26" s="16"/>
+      <c r="DB26" s="16"/>
+      <c r="DC26" s="16"/>
+      <c r="DD26" s="16"/>
+      <c r="DE26" s="16"/>
+      <c r="DF26" s="16"/>
+      <c r="DG26" s="16"/>
+      <c r="DH26" s="16"/>
+      <c r="DI26" s="16"/>
+      <c r="DJ26" s="16"/>
+      <c r="DK26" s="16"/>
+      <c r="DL26" s="16"/>
+      <c r="DM26" s="16"/>
+      <c r="DN26" s="16"/>
+      <c r="DO26" s="16"/>
+      <c r="DP26" s="16"/>
+      <c r="DQ26" s="16"/>
+      <c r="DR26" s="16"/>
+      <c r="DS26" s="16"/>
+      <c r="DT26" s="16"/>
+      <c r="DU26" s="16"/>
+      <c r="DV26" s="16"/>
+      <c r="DW26" s="16"/>
+      <c r="DX26" s="16"/>
+      <c r="DY26" s="16"/>
+      <c r="DZ26" s="16"/>
+      <c r="EA26" s="16"/>
+      <c r="EB26" s="16"/>
+      <c r="EC26" s="16"/>
+      <c r="ED26" s="16"/>
+      <c r="EE26" s="16"/>
+      <c r="EF26" s="16"/>
+      <c r="EG26" s="16"/>
+      <c r="EH26" s="16"/>
+      <c r="EI26" s="16"/>
+      <c r="EJ26" s="16"/>
+      <c r="EK26" s="16"/>
+      <c r="EL26" s="16"/>
+      <c r="EM26" s="16"/>
+      <c r="EN26" s="16"/>
+      <c r="EO26" s="16"/>
+      <c r="EP26" s="16"/>
+      <c r="EQ26" s="16"/>
+      <c r="ER26" s="16"/>
+      <c r="ES26" s="16"/>
+      <c r="ET26" s="16"/>
+      <c r="EU26" s="16"/>
+      <c r="EV26" s="16"/>
+      <c r="EW26" s="16"/>
+      <c r="EX26" s="16"/>
+      <c r="EY26" s="16"/>
+      <c r="EZ26" s="16"/>
+      <c r="FA26" s="16"/>
+      <c r="FB26" s="16"/>
+      <c r="FC26" s="16"/>
+      <c r="FD26" s="16"/>
+      <c r="FE26" s="16"/>
+      <c r="FF26" s="16"/>
+      <c r="FG26" s="16"/>
+      <c r="FH26" s="16"/>
+      <c r="FI26" s="16"/>
+      <c r="FJ26" s="16"/>
+      <c r="FK26" s="16"/>
+      <c r="FL26" s="16"/>
+      <c r="FM26" s="16"/>
+      <c r="FN26" s="16"/>
+      <c r="FO26" s="16"/>
+      <c r="FP26" s="16"/>
+      <c r="FQ26" s="16"/>
+      <c r="FR26" s="16"/>
+      <c r="FS26" s="16"/>
+      <c r="FT26" s="16"/>
+      <c r="FU26" s="16"/>
+      <c r="FV26" s="16"/>
+      <c r="FW26" s="16"/>
+      <c r="FX26" s="16"/>
+      <c r="FY26" s="16"/>
+      <c r="FZ26" s="16"/>
+      <c r="GA26" s="16"/>
+      <c r="GB26" s="16"/>
+      <c r="GC26" s="16"/>
+      <c r="GD26" s="16"/>
+      <c r="GE26" s="16"/>
+      <c r="GF26" s="16"/>
+      <c r="GG26" s="16"/>
+      <c r="GH26" s="16"/>
+      <c r="GI26" s="16"/>
+      <c r="GJ26" s="16"/>
+      <c r="GK26" s="16"/>
+      <c r="GL26" s="16"/>
+      <c r="GM26" s="16"/>
+      <c r="GN26" s="16"/>
+      <c r="GO26" s="16"/>
+      <c r="GP26" s="16"/>
+      <c r="GQ26" s="16"/>
+      <c r="GR26" s="16"/>
+      <c r="GS26" s="16"/>
+      <c r="GT26" s="16"/>
+      <c r="GU26" s="16"/>
+      <c r="GV26" s="16"/>
+      <c r="GW26" s="16"/>
+      <c r="GX26" s="16"/>
+      <c r="GY26" s="16"/>
+      <c r="GZ26" s="16"/>
+      <c r="HA26" s="16"/>
+      <c r="HB26" s="16"/>
+      <c r="HC26" s="16"/>
+      <c r="HD26" s="16"/>
+      <c r="HE26" s="16"/>
+      <c r="HF26" s="16"/>
+      <c r="HG26" s="16"/>
+      <c r="HH26" s="16"/>
+      <c r="HI26" s="16"/>
+      <c r="HJ26" s="16"/>
+      <c r="HK26" s="16"/>
+      <c r="HL26" s="16"/>
+      <c r="HM26" s="16"/>
+      <c r="HN26" s="16"/>
+      <c r="HO26" s="16"/>
+      <c r="HP26" s="16"/>
+      <c r="HQ26" s="16"/>
+      <c r="HR26" s="16"/>
+      <c r="HS26" s="16"/>
+      <c r="HT26" s="16"/>
+      <c r="HU26" s="16"/>
+      <c r="HV26" s="16"/>
+      <c r="HW26" s="16"/>
+      <c r="HX26" s="16"/>
+      <c r="HY26" s="16"/>
+      <c r="HZ26" s="16"/>
+      <c r="IA26" s="16"/>
+      <c r="IB26" s="16"/>
+      <c r="IC26" s="16"/>
+      <c r="ID26" s="16"/>
+      <c r="IE26" s="16"/>
+      <c r="IF26" s="16"/>
+      <c r="IG26" s="16"/>
+      <c r="IH26" s="16"/>
+      <c r="II26" s="16"/>
+      <c r="IJ26" s="16"/>
+      <c r="IK26" s="16"/>
+      <c r="IL26" s="16"/>
+      <c r="IM26" s="16"/>
+      <c r="IN26" s="16"/>
+      <c r="IO26" s="16"/>
+      <c r="IP26" s="16"/>
+      <c r="IQ26" s="16"/>
+      <c r="IR26" s="16"/>
+      <c r="IS26" s="16"/>
+      <c r="IT26" s="16"/>
+      <c r="IU26" s="16"/>
+    </row>
+    <row r="27" spans="1:255" ht="15.95" customHeight="1">
       <c r="A27" s="5">
         <v>80025</v>
       </c>
@@ -2268,13 +3291,14 @@
         <v>64</v>
       </c>
       <c r="F27" s="6">
-        <v>3000</v>
+        <f t="array" ref="F27">F32*0.22</f>
+        <v>189200000</v>
       </c>
       <c r="G27" s="4" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:255" ht="15.95" customHeight="1">
       <c r="A28" s="5">
         <v>80026</v>
       </c>
@@ -2291,13 +3315,14 @@
         <v>66</v>
       </c>
       <c r="F28" s="6">
-        <v>3000</v>
+        <f t="array" ref="F28">F32*0.25</f>
+        <v>215000000</v>
       </c>
       <c r="G28" s="4" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:255" ht="15.95" customHeight="1">
       <c r="A29" s="5">
         <v>80027</v>
       </c>
@@ -2314,13 +3339,14 @@
         <v>68</v>
       </c>
       <c r="F29" s="6">
-        <v>3000</v>
+        <f t="array" ref="F29">F32*0.3</f>
+        <v>258000000</v>
       </c>
       <c r="G29" s="4" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:255" ht="15.95" customHeight="1">
       <c r="A30" s="5">
         <v>80028</v>
       </c>
@@ -2337,13 +3363,14 @@
         <v>70</v>
       </c>
       <c r="F30" s="6">
-        <v>3000</v>
+        <f t="array" ref="F30">F32*0.5</f>
+        <v>430000000</v>
       </c>
       <c r="G30" s="4" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:255" ht="15.95" customHeight="1">
       <c r="A31" s="5">
         <v>80029</v>
       </c>
@@ -2360,34 +3387,283 @@
         <v>72</v>
       </c>
       <c r="F31" s="6">
-        <v>3000</v>
+        <f t="array" ref="F31">F32*0.7</f>
+        <v>602000000</v>
       </c>
       <c r="G31" s="4" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="5">
+    <row r="32" spans="1:255" s="17" customFormat="1" ht="15.95" customHeight="1">
+      <c r="A32" s="11">
         <v>80030</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B32" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="C32" s="5">
+      <c r="C32" s="11">
         <v>30</v>
       </c>
-      <c r="D32" s="2" t="s">
+      <c r="D32" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="E32" s="3" t="s">
+      <c r="E32" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="F32" s="6">
-        <v>3000</v>
-      </c>
-      <c r="G32" s="4" t="s">
+      <c r="F32" s="14">
+        <v>860000000</v>
+      </c>
+      <c r="G32" s="15" t="s">
         <v>102</v>
       </c>
+      <c r="H32" s="16"/>
+      <c r="I32" s="16"/>
+      <c r="J32" s="16"/>
+      <c r="K32" s="16"/>
+      <c r="L32" s="16"/>
+      <c r="M32" s="16"/>
+      <c r="N32" s="16"/>
+      <c r="O32" s="16"/>
+      <c r="P32" s="16"/>
+      <c r="Q32" s="16"/>
+      <c r="R32" s="16"/>
+      <c r="S32" s="16"/>
+      <c r="T32" s="16"/>
+      <c r="U32" s="16"/>
+      <c r="V32" s="16"/>
+      <c r="W32" s="16"/>
+      <c r="X32" s="16"/>
+      <c r="Y32" s="16"/>
+      <c r="Z32" s="16"/>
+      <c r="AA32" s="16"/>
+      <c r="AB32" s="16"/>
+      <c r="AC32" s="16"/>
+      <c r="AD32" s="16"/>
+      <c r="AE32" s="16"/>
+      <c r="AF32" s="16"/>
+      <c r="AG32" s="16"/>
+      <c r="AH32" s="16"/>
+      <c r="AI32" s="16"/>
+      <c r="AJ32" s="16"/>
+      <c r="AK32" s="16"/>
+      <c r="AL32" s="16"/>
+      <c r="AM32" s="16"/>
+      <c r="AN32" s="16"/>
+      <c r="AO32" s="16"/>
+      <c r="AP32" s="16"/>
+      <c r="AQ32" s="16"/>
+      <c r="AR32" s="16"/>
+      <c r="AS32" s="16"/>
+      <c r="AT32" s="16"/>
+      <c r="AU32" s="16"/>
+      <c r="AV32" s="16"/>
+      <c r="AW32" s="16"/>
+      <c r="AX32" s="16"/>
+      <c r="AY32" s="16"/>
+      <c r="AZ32" s="16"/>
+      <c r="BA32" s="16"/>
+      <c r="BB32" s="16"/>
+      <c r="BC32" s="16"/>
+      <c r="BD32" s="16"/>
+      <c r="BE32" s="16"/>
+      <c r="BF32" s="16"/>
+      <c r="BG32" s="16"/>
+      <c r="BH32" s="16"/>
+      <c r="BI32" s="16"/>
+      <c r="BJ32" s="16"/>
+      <c r="BK32" s="16"/>
+      <c r="BL32" s="16"/>
+      <c r="BM32" s="16"/>
+      <c r="BN32" s="16"/>
+      <c r="BO32" s="16"/>
+      <c r="BP32" s="16"/>
+      <c r="BQ32" s="16"/>
+      <c r="BR32" s="16"/>
+      <c r="BS32" s="16"/>
+      <c r="BT32" s="16"/>
+      <c r="BU32" s="16"/>
+      <c r="BV32" s="16"/>
+      <c r="BW32" s="16"/>
+      <c r="BX32" s="16"/>
+      <c r="BY32" s="16"/>
+      <c r="BZ32" s="16"/>
+      <c r="CA32" s="16"/>
+      <c r="CB32" s="16"/>
+      <c r="CC32" s="16"/>
+      <c r="CD32" s="16"/>
+      <c r="CE32" s="16"/>
+      <c r="CF32" s="16"/>
+      <c r="CG32" s="16"/>
+      <c r="CH32" s="16"/>
+      <c r="CI32" s="16"/>
+      <c r="CJ32" s="16"/>
+      <c r="CK32" s="16"/>
+      <c r="CL32" s="16"/>
+      <c r="CM32" s="16"/>
+      <c r="CN32" s="16"/>
+      <c r="CO32" s="16"/>
+      <c r="CP32" s="16"/>
+      <c r="CQ32" s="16"/>
+      <c r="CR32" s="16"/>
+      <c r="CS32" s="16"/>
+      <c r="CT32" s="16"/>
+      <c r="CU32" s="16"/>
+      <c r="CV32" s="16"/>
+      <c r="CW32" s="16"/>
+      <c r="CX32" s="16"/>
+      <c r="CY32" s="16"/>
+      <c r="CZ32" s="16"/>
+      <c r="DA32" s="16"/>
+      <c r="DB32" s="16"/>
+      <c r="DC32" s="16"/>
+      <c r="DD32" s="16"/>
+      <c r="DE32" s="16"/>
+      <c r="DF32" s="16"/>
+      <c r="DG32" s="16"/>
+      <c r="DH32" s="16"/>
+      <c r="DI32" s="16"/>
+      <c r="DJ32" s="16"/>
+      <c r="DK32" s="16"/>
+      <c r="DL32" s="16"/>
+      <c r="DM32" s="16"/>
+      <c r="DN32" s="16"/>
+      <c r="DO32" s="16"/>
+      <c r="DP32" s="16"/>
+      <c r="DQ32" s="16"/>
+      <c r="DR32" s="16"/>
+      <c r="DS32" s="16"/>
+      <c r="DT32" s="16"/>
+      <c r="DU32" s="16"/>
+      <c r="DV32" s="16"/>
+      <c r="DW32" s="16"/>
+      <c r="DX32" s="16"/>
+      <c r="DY32" s="16"/>
+      <c r="DZ32" s="16"/>
+      <c r="EA32" s="16"/>
+      <c r="EB32" s="16"/>
+      <c r="EC32" s="16"/>
+      <c r="ED32" s="16"/>
+      <c r="EE32" s="16"/>
+      <c r="EF32" s="16"/>
+      <c r="EG32" s="16"/>
+      <c r="EH32" s="16"/>
+      <c r="EI32" s="16"/>
+      <c r="EJ32" s="16"/>
+      <c r="EK32" s="16"/>
+      <c r="EL32" s="16"/>
+      <c r="EM32" s="16"/>
+      <c r="EN32" s="16"/>
+      <c r="EO32" s="16"/>
+      <c r="EP32" s="16"/>
+      <c r="EQ32" s="16"/>
+      <c r="ER32" s="16"/>
+      <c r="ES32" s="16"/>
+      <c r="ET32" s="16"/>
+      <c r="EU32" s="16"/>
+      <c r="EV32" s="16"/>
+      <c r="EW32" s="16"/>
+      <c r="EX32" s="16"/>
+      <c r="EY32" s="16"/>
+      <c r="EZ32" s="16"/>
+      <c r="FA32" s="16"/>
+      <c r="FB32" s="16"/>
+      <c r="FC32" s="16"/>
+      <c r="FD32" s="16"/>
+      <c r="FE32" s="16"/>
+      <c r="FF32" s="16"/>
+      <c r="FG32" s="16"/>
+      <c r="FH32" s="16"/>
+      <c r="FI32" s="16"/>
+      <c r="FJ32" s="16"/>
+      <c r="FK32" s="16"/>
+      <c r="FL32" s="16"/>
+      <c r="FM32" s="16"/>
+      <c r="FN32" s="16"/>
+      <c r="FO32" s="16"/>
+      <c r="FP32" s="16"/>
+      <c r="FQ32" s="16"/>
+      <c r="FR32" s="16"/>
+      <c r="FS32" s="16"/>
+      <c r="FT32" s="16"/>
+      <c r="FU32" s="16"/>
+      <c r="FV32" s="16"/>
+      <c r="FW32" s="16"/>
+      <c r="FX32" s="16"/>
+      <c r="FY32" s="16"/>
+      <c r="FZ32" s="16"/>
+      <c r="GA32" s="16"/>
+      <c r="GB32" s="16"/>
+      <c r="GC32" s="16"/>
+      <c r="GD32" s="16"/>
+      <c r="GE32" s="16"/>
+      <c r="GF32" s="16"/>
+      <c r="GG32" s="16"/>
+      <c r="GH32" s="16"/>
+      <c r="GI32" s="16"/>
+      <c r="GJ32" s="16"/>
+      <c r="GK32" s="16"/>
+      <c r="GL32" s="16"/>
+      <c r="GM32" s="16"/>
+      <c r="GN32" s="16"/>
+      <c r="GO32" s="16"/>
+      <c r="GP32" s="16"/>
+      <c r="GQ32" s="16"/>
+      <c r="GR32" s="16"/>
+      <c r="GS32" s="16"/>
+      <c r="GT32" s="16"/>
+      <c r="GU32" s="16"/>
+      <c r="GV32" s="16"/>
+      <c r="GW32" s="16"/>
+      <c r="GX32" s="16"/>
+      <c r="GY32" s="16"/>
+      <c r="GZ32" s="16"/>
+      <c r="HA32" s="16"/>
+      <c r="HB32" s="16"/>
+      <c r="HC32" s="16"/>
+      <c r="HD32" s="16"/>
+      <c r="HE32" s="16"/>
+      <c r="HF32" s="16"/>
+      <c r="HG32" s="16"/>
+      <c r="HH32" s="16"/>
+      <c r="HI32" s="16"/>
+      <c r="HJ32" s="16"/>
+      <c r="HK32" s="16"/>
+      <c r="HL32" s="16"/>
+      <c r="HM32" s="16"/>
+      <c r="HN32" s="16"/>
+      <c r="HO32" s="16"/>
+      <c r="HP32" s="16"/>
+      <c r="HQ32" s="16"/>
+      <c r="HR32" s="16"/>
+      <c r="HS32" s="16"/>
+      <c r="HT32" s="16"/>
+      <c r="HU32" s="16"/>
+      <c r="HV32" s="16"/>
+      <c r="HW32" s="16"/>
+      <c r="HX32" s="16"/>
+      <c r="HY32" s="16"/>
+      <c r="HZ32" s="16"/>
+      <c r="IA32" s="16"/>
+      <c r="IB32" s="16"/>
+      <c r="IC32" s="16"/>
+      <c r="ID32" s="16"/>
+      <c r="IE32" s="16"/>
+      <c r="IF32" s="16"/>
+      <c r="IG32" s="16"/>
+      <c r="IH32" s="16"/>
+      <c r="II32" s="16"/>
+      <c r="IJ32" s="16"/>
+      <c r="IK32" s="16"/>
+      <c r="IL32" s="16"/>
+      <c r="IM32" s="16"/>
+      <c r="IN32" s="16"/>
+      <c r="IO32" s="16"/>
+      <c r="IP32" s="16"/>
+      <c r="IQ32" s="16"/>
+      <c r="IR32" s="16"/>
+      <c r="IS32" s="16"/>
+      <c r="IT32" s="16"/>
+      <c r="IU32" s="16"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -2400,80 +3676,80 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:IV10"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" customHeight="1"/>
   <cols>
     <col min="1" max="256" width="8.75" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" ht="15.95" customHeight="1">
       <c r="A1" s="7"/>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
       <c r="D1" s="7"/>
       <c r="E1" s="7"/>
     </row>
-    <row r="2" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" ht="15.95" customHeight="1">
       <c r="A2" s="7"/>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" ht="15.95" customHeight="1">
       <c r="A3" s="7"/>
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
     </row>
-    <row r="4" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" ht="15.95" customHeight="1">
       <c r="A4" s="7"/>
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5" ht="15.95" customHeight="1">
       <c r="A5" s="7"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
     </row>
-    <row r="6" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5" ht="15.95" customHeight="1">
       <c r="A6" s="7"/>
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
     </row>
-    <row r="7" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5" ht="15.95" customHeight="1">
       <c r="A7" s="7"/>
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
     </row>
-    <row r="8" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:5" ht="15.95" customHeight="1">
       <c r="A8" s="7"/>
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
     </row>
-    <row r="9" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5" ht="15.95" customHeight="1">
       <c r="A9" s="7"/>
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
     </row>
-    <row r="10" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:5" ht="15.95" customHeight="1">
       <c r="A10" s="7"/>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
@@ -2491,80 +3767,80 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:IV10"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" customHeight="1"/>
   <cols>
     <col min="1" max="256" width="8.75" style="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" ht="15.95" customHeight="1">
       <c r="A1" s="7"/>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
       <c r="D1" s="7"/>
       <c r="E1" s="7"/>
     </row>
-    <row r="2" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" ht="15.95" customHeight="1">
       <c r="A2" s="7"/>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" ht="15.95" customHeight="1">
       <c r="A3" s="7"/>
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
     </row>
-    <row r="4" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" ht="15.95" customHeight="1">
       <c r="A4" s="7"/>
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5" ht="15.95" customHeight="1">
       <c r="A5" s="7"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
     </row>
-    <row r="6" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5" ht="15.95" customHeight="1">
       <c r="A6" s="7"/>
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
     </row>
-    <row r="7" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5" ht="15.95" customHeight="1">
       <c r="A7" s="7"/>
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
     </row>
-    <row r="8" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:5" ht="15.95" customHeight="1">
       <c r="A8" s="7"/>
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
     </row>
-    <row r="9" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5" ht="15.95" customHeight="1">
       <c r="A9" s="7"/>
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
     </row>
-    <row r="10" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:5" ht="15.95" customHeight="1">
       <c r="A10" s="7"/>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
